--- a/artifacts/pending copy/Fund.xlsx
+++ b/artifacts/pending copy/Fund.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrian.riddle/GitHub/tools_demo_loaders/artifacts/pending/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrian.riddle/GitHub/ksys_loader_start/artifacts/pending copy/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Fund" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Fund Code</t>
   </si>
@@ -39,6 +39,30 @@
   </si>
   <si>
     <t>FSGBR05CUB</t>
+  </si>
+  <si>
+    <t>FSGBR05CXJ</t>
+  </si>
+  <si>
+    <t>Parvest Bond USA High Yield</t>
+  </si>
+  <si>
+    <t>FSUSA08I47</t>
+  </si>
+  <si>
+    <t>Parvest Equity Europe Small Cap</t>
+  </si>
+  <si>
+    <t>FS0000B55X</t>
+  </si>
+  <si>
+    <t>BNPP L1 Multi-Asset Income</t>
+  </si>
+  <si>
+    <t>FSUSA09LN1</t>
+  </si>
+  <si>
+    <t>BNP Paribas Aqua</t>
   </si>
 </sst>
 </file>
@@ -353,9 +377,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -381,6 +407,50 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
